--- a/Grafik/Administrativt/Grafikplanering-SGA.xlsx
+++ b/Grafik/Administrativt/Grafikplanering-SGA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="195" windowWidth="22980" windowHeight="9405"/>
@@ -10,12 +10,12 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Vecka:</t>
   </si>
@@ -117,13 +117,16 @@
   </si>
   <si>
     <t>Grafik - SGA</t>
+  </si>
+  <si>
+    <t>Atle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,7 +372,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -404,7 +406,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -580,14 +581,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
@@ -605,7 +606,7 @@
     <col min="32" max="32" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
@@ -622,7 +623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="26.25">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -640,7 +641,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -650,7 +651,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="21">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -662,7 +663,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
         <v>4</v>
@@ -680,19 +681,23 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75">
       <c r="A6" s="9"/>
       <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
         <v>9</v>
@@ -704,7 +709,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="3"/>
@@ -714,7 +719,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="21">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -726,7 +731,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
         <v>11</v>
@@ -738,7 +743,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="s">
         <v>12</v>
@@ -750,7 +755,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
         <v>13</v>
@@ -762,7 +767,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
         <v>15</v>
@@ -774,7 +779,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
         <v>16</v>
@@ -786,7 +791,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="s">
         <v>17</v>
@@ -800,7 +805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -810,7 +815,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="21">
       <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
@@ -822,7 +827,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -834,7 +839,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75">
       <c r="A19" s="9"/>
       <c r="B19" s="10" t="s">
         <v>22</v>
@@ -846,7 +851,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
         <v>23</v>
@@ -858,7 +863,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75">
       <c r="A21" s="9"/>
       <c r="B21" s="10" t="s">
         <v>20</v>
@@ -870,7 +875,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -880,7 +885,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="21">
       <c r="A23" s="7" t="s">
         <v>24</v>
       </c>
@@ -892,7 +897,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75">
       <c r="A24" s="9"/>
       <c r="B24" s="10" t="s">
         <v>25</v>
@@ -904,7 +909,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75">
       <c r="A25" s="9"/>
       <c r="B25" s="10" t="s">
         <v>26</v>
@@ -916,7 +921,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -926,7 +931,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="21">
       <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
@@ -938,7 +943,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75">
       <c r="A28" s="9"/>
       <c r="B28" s="10" t="s">
         <v>28</v>
@@ -950,7 +955,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75">
       <c r="A29" s="9"/>
       <c r="B29" s="10" t="s">
         <v>29</v>
@@ -962,7 +967,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -972,7 +977,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="21">
       <c r="A31" s="7" t="s">
         <v>30</v>
       </c>
@@ -984,7 +989,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75">
       <c r="A32" s="9"/>
       <c r="B32" s="10" t="s">
         <v>31</v>
@@ -996,7 +1001,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.75">
       <c r="A33" s="9"/>
       <c r="B33" s="10" t="s">
         <v>32</v>
@@ -1008,7 +1013,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1025,14 +1030,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Grafik/Administrativt/Grafikplanering-SGA.xlsx
+++ b/Grafik/Administrativt/Grafikplanering-SGA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Vecka:</t>
   </si>
@@ -585,7 +585,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -694,7 +694,9 @@
       <c r="F6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15.75">

--- a/Grafik/Administrativt/Grafikplanering-SGA.xlsx
+++ b/Grafik/Administrativt/Grafikplanering-SGA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Vecka:</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Atle</t>
+  </si>
+  <si>
+    <t>ATLe</t>
   </si>
 </sst>
 </file>
@@ -585,7 +588,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -788,8 +791,12 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="1"/>
     </row>

--- a/Grafik/Administrativt/Grafikplanering-SGA.xlsx
+++ b/Grafik/Administrativt/Grafikplanering-SGA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Vecka:</t>
   </si>
@@ -588,7 +588,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -797,7 +797,9 @@
       <c r="F14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15.75">
